--- a/biology/Zoologie/Aracynthus/Aracynthus.xlsx
+++ b/biology/Zoologie/Aracynthus/Aracynthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aracynthus est un genre d'insectes hémiptères de la famille des Fulgoridae, de la sous-famille des Aphaeninae, de la tribu des Diloburini (Metkalf, 1938).
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Aracynthus a été décrit par l'entomologiste suédois Carl Stål en 1866[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Aracynthus a été décrit par l'entomologiste suédois Carl Stål en 1866.
 L'espèce type du genre est Aracynthus sanguineus.</t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre comporte 3 espèces :
 Aracynthus fulmineus Nast, 1950
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre vivent en Guyane.
 </t>
